--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed4/result_data_KNN.xlsx
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>16.758</v>
+        <v>17.332</v>
       </c>
     </row>
     <row r="10">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.474</v>
+        <v>16.498</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.668</v>
+        <v>16.696</v>
       </c>
     </row>
     <row r="17">
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.644</v>
+        <v>16.626</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.552</v>
+        <v>16.314</v>
       </c>
     </row>
     <row r="21">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.594</v>
+        <v>16.424</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.468</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.604</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="30">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.11</v>
+        <v>16.407</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.748</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.818</v>
+        <v>16.804</v>
       </c>
     </row>
     <row r="46">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.728</v>
+        <v>16.557</v>
       </c>
     </row>
     <row r="56">
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.564</v>
       </c>
     </row>
     <row r="58">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.102</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="70">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.484</v>
+        <v>16.433</v>
       </c>
     </row>
     <row r="77">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.35</v>
+        <v>16.507</v>
       </c>
     </row>
     <row r="79">
@@ -1834,7 +1834,7 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.462</v>
+        <v>16.864</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.776</v>
+        <v>16.935</v>
       </c>
     </row>
     <row r="84">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>16.992</v>
+        <v>17.291</v>
       </c>
     </row>
     <row r="94">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.79</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="98">
